--- a/Testdata/LiveRef/ManageSourceData/ManageSourceofDataPage_Data.xlsx
+++ b/Testdata/LiveRef/ManageSourceData/ManageSourceofDataPage_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VersionControl\pse.autotest\Testdata\LiveRef\ManageSourceData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4511DC9-CDAC-4BCB-8DE0-27E294B38B58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25FE6212-5D13-4915-8A42-381A92113DD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{4E4E9E4E-34CE-4B5C-BC3C-B08A05AB3BC9}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="23">
   <si>
     <t>Name</t>
   </si>
@@ -82,9 +82,6 @@
     <t>Edit_source_value</t>
   </si>
   <si>
-    <t>Automation_Test</t>
-  </si>
-  <si>
     <t>Source_Logo</t>
   </si>
   <si>
@@ -95,6 +92,18 @@
   </si>
   <si>
     <t>11/05/2022</t>
+  </si>
+  <si>
+    <t>11/03/2022</t>
+  </si>
+  <si>
+    <t>11/10/2022</t>
+  </si>
+  <si>
+    <t>Automation_Test_Update</t>
+  </si>
+  <si>
+    <t>AUT_UPDT</t>
   </si>
 </sst>
 </file>
@@ -463,7 +472,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -488,10 +497,10 @@
         <v>14</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -532,7 +541,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D4" s="3"/>
     </row>
@@ -544,7 +553,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D5" s="4"/>
     </row>
@@ -559,7 +568,7 @@
         <v>7</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E7" t="s">
         <v>6</v>
@@ -579,7 +588,7 @@
         <v>5</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -589,11 +598,11 @@
       <c r="B9" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="3">
-        <v>44572</v>
-      </c>
-      <c r="D9" s="3">
-        <v>44631</v>
+      <c r="C9" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -603,11 +612,11 @@
       <c r="B10" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="4">
-        <v>44692</v>
-      </c>
-      <c r="D10" s="4">
-        <v>44845</v>
+      <c r="C10" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/Testdata/LiveRef/ManageSourceData/ManageSourceofDataPage_Data.xlsx
+++ b/Testdata/LiveRef/ManageSourceData/ManageSourceofDataPage_Data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VersionControl\pse.autotest\Testdata\LiveRef\ManageSourceData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25FE6212-5D13-4915-8A42-381A92113DD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3F91876-2ABD-44B9-A3D4-608C36AFF8AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{4E4E9E4E-34CE-4B5C-BC3C-B08A05AB3BC9}"/>
   </bookViews>
@@ -88,22 +88,22 @@
     <t>Source_Template</t>
   </si>
   <si>
-    <t>11/01/2022</t>
-  </si>
-  <si>
-    <t>11/05/2022</t>
-  </si>
-  <si>
-    <t>11/03/2022</t>
-  </si>
-  <si>
-    <t>11/10/2022</t>
-  </si>
-  <si>
     <t>Automation_Test_Update</t>
   </si>
   <si>
     <t>AUT_UPDT</t>
+  </si>
+  <si>
+    <t>01/01/2023</t>
+  </si>
+  <si>
+    <t>01/05/2023</t>
+  </si>
+  <si>
+    <t>01/03/2023</t>
+  </si>
+  <si>
+    <t>01/13/2023</t>
   </si>
 </sst>
 </file>
@@ -145,15 +145,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -472,7 +469,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -510,10 +507,9 @@
       <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="2"/>
       <c r="E2" t="s">
         <v>6</v>
       </c>
@@ -528,10 +524,9 @@
       <c r="B3" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="2"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -540,10 +535,10 @@
       <c r="B4" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="3"/>
+      <c r="C4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="2"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -552,10 +547,10 @@
       <c r="B5" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="4"/>
+      <c r="C5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="2"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -564,11 +559,11 @@
       <c r="B7" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>21</v>
+      <c r="D7" t="s">
+        <v>17</v>
       </c>
       <c r="E7" t="s">
         <v>6</v>
@@ -584,11 +579,11 @@
       <c r="B8" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>22</v>
+      <c r="D8" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -598,11 +593,11 @@
       <c r="B9" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" s="5" t="s">
+      <c r="C9" s="3" t="s">
         <v>19</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -612,11 +607,11 @@
       <c r="B10" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" s="6" t="s">
+      <c r="C10" s="3" t="s">
         <v>20</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/Testdata/LiveRef/ManageSourceData/ManageSourceofDataPage_Data.xlsx
+++ b/Testdata/LiveRef/ManageSourceData/ManageSourceofDataPage_Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VersionControl\pse.autotest\Testdata\LiveRef\ManageSourceData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3F91876-2ABD-44B9-A3D4-608C36AFF8AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B6E1C3A-9A57-4E7E-B828-A1C790735CE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{4E4E9E4E-34CE-4B5C-BC3C-B08A05AB3BC9}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{4E4E9E4E-34CE-4B5C-BC3C-B08A05AB3BC9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
   <si>
     <t>Name</t>
   </si>
@@ -64,9 +64,6 @@
     <t>scenario1</t>
   </si>
   <si>
-    <t>scenario2</t>
-  </si>
-  <si>
     <t>\Testdata\LiveRef\ManageSourceData\AUT_2022_Template - old.xlsx</t>
   </si>
   <si>
@@ -85,9 +82,6 @@
     <t>Source_Logo</t>
   </si>
   <si>
-    <t>Source_Template</t>
-  </si>
-  <si>
     <t>Automation_Test_Update</t>
   </si>
   <si>
@@ -104,6 +98,15 @@
   </si>
   <si>
     <t>01/13/2023</t>
+  </si>
+  <si>
+    <t>Source_Template_invalid</t>
+  </si>
+  <si>
+    <t>Source_Template_valid</t>
+  </si>
+  <si>
+    <t>C29826</t>
   </si>
 </sst>
 </file>
@@ -145,12 +148,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -466,41 +468,45 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9A57BBF-4E09-492C-9596-59872866F622}">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="A7" sqref="A7:F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="26.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.44140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="40.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="60.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="60.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="F1" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -510,14 +516,20 @@
       <c r="C2" t="s">
         <v>7</v>
       </c>
+      <c r="D2" t="s">
+        <v>15</v>
+      </c>
       <c r="E2" t="s">
         <v>6</v>
       </c>
       <c r="F2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -527,92 +539,45 @@
       <c r="C3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>8</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="2"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>8</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="2"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" t="s">
-        <v>6</v>
-      </c>
-      <c r="F7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>22</v>
-      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
